--- a/tmp/daily_TSLA.xlsx
+++ b/tmp/daily_TSLA.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RSI" sheetId="1" r:id="rId1"/>
     <sheet name="ADX" sheetId="2" r:id="rId2"/>
+    <sheet name="OBV" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>timestamp</t>
   </si>
@@ -80,6 +81,15 @@
   </si>
   <si>
     <t>ADX</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>OBV</t>
+  </si>
+  <si>
+    <t>Volume*Direction</t>
   </si>
 </sst>
 </file>
@@ -5911,7 +5921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -20790,4 +20800,8019 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I250"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B2">
+        <v>641.87</v>
+      </c>
+      <c r="C2">
+        <v>643.82000000000005</v>
+      </c>
+      <c r="D2">
+        <v>599.89</v>
+      </c>
+      <c r="E2">
+        <v>618.71</v>
+      </c>
+      <c r="F2">
+        <v>33852827</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>F2*G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B3">
+        <v>613</v>
+      </c>
+      <c r="C3">
+        <v>645.5</v>
+      </c>
+      <c r="D3">
+        <v>609.5</v>
+      </c>
+      <c r="E3">
+        <v>640.39</v>
+      </c>
+      <c r="F3">
+        <v>39224850</v>
+      </c>
+      <c r="G3">
+        <f>IF(E3&gt;E2,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">F3*G3</f>
+        <v>39224850</v>
+      </c>
+      <c r="I3">
+        <f>SUM(H2:H3)</f>
+        <v>39224850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B4">
+        <v>667.91</v>
+      </c>
+      <c r="C4">
+        <v>668.02</v>
+      </c>
+      <c r="D4">
+        <v>630.11</v>
+      </c>
+      <c r="E4">
+        <v>630.27</v>
+      </c>
+      <c r="F4">
+        <v>33795174</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="1">IF(E4&gt;E3,1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-33795174</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="2">SUM(H3:H4)</f>
+        <v>5429676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B5">
+        <v>675.77</v>
+      </c>
+      <c r="C5">
+        <v>677.8</v>
+      </c>
+      <c r="D5">
+        <v>657.51</v>
+      </c>
+      <c r="E5">
+        <v>662.16</v>
+      </c>
+      <c r="F5">
+        <v>30491870</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>30491870</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-3303304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B6">
+        <v>684.59</v>
+      </c>
+      <c r="C6">
+        <v>699.62</v>
+      </c>
+      <c r="D6">
+        <v>668.75</v>
+      </c>
+      <c r="E6">
+        <v>670</v>
+      </c>
+      <c r="F6">
+        <v>39512221</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>39512221</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>70004091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B7">
+        <v>646.6</v>
+      </c>
+      <c r="C7">
+        <v>657.23</v>
+      </c>
+      <c r="D7">
+        <v>624.62009999999998</v>
+      </c>
+      <c r="E7">
+        <v>654.87</v>
+      </c>
+      <c r="F7">
+        <v>42893978</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-42893978</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>-3381757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B8">
+        <v>684.29</v>
+      </c>
+      <c r="C8">
+        <v>689.23</v>
+      </c>
+      <c r="D8">
+        <v>652</v>
+      </c>
+      <c r="E8">
+        <v>653.16</v>
+      </c>
+      <c r="F8">
+        <v>33369022</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-33369022</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>-76263000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B9">
+        <v>656.87</v>
+      </c>
+      <c r="C9">
+        <v>703.73</v>
+      </c>
+      <c r="D9">
+        <v>651.01</v>
+      </c>
+      <c r="E9">
+        <v>701.81</v>
+      </c>
+      <c r="F9">
+        <v>40372453</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>40372453</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>7003431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B10">
+        <v>703.35</v>
+      </c>
+      <c r="C10">
+        <v>707.92</v>
+      </c>
+      <c r="D10">
+        <v>671</v>
+      </c>
+      <c r="E10">
+        <v>676.88</v>
+      </c>
+      <c r="F10">
+        <v>32195672</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-32195672</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>8176781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B11">
+        <v>694.09</v>
+      </c>
+      <c r="C11">
+        <v>713.18</v>
+      </c>
+      <c r="D11">
+        <v>684.04</v>
+      </c>
+      <c r="E11">
+        <v>707.94</v>
+      </c>
+      <c r="F11">
+        <v>29423479</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>29423479</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>-2772193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B12">
+        <v>670</v>
+      </c>
+      <c r="C12">
+        <v>694.88</v>
+      </c>
+      <c r="D12">
+        <v>666.13940000000002</v>
+      </c>
+      <c r="E12">
+        <v>693.73</v>
+      </c>
+      <c r="F12">
+        <v>33583840</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-33583840</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>-4160361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B13">
+        <v>699.4</v>
+      </c>
+      <c r="C13">
+        <v>702.5</v>
+      </c>
+      <c r="D13">
+        <v>677.18</v>
+      </c>
+      <c r="E13">
+        <v>699.6</v>
+      </c>
+      <c r="F13">
+        <v>36253892</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>36253892</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2670052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B14">
+        <v>700.3</v>
+      </c>
+      <c r="C14">
+        <v>717.85</v>
+      </c>
+      <c r="D14">
+        <v>655.05999999999995</v>
+      </c>
+      <c r="E14">
+        <v>668.06</v>
+      </c>
+      <c r="F14">
+        <v>60605672</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-60605672</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>-24351780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B15">
+        <v>608.17999999999995</v>
+      </c>
+      <c r="C15">
+        <v>678.09</v>
+      </c>
+      <c r="D15">
+        <v>595.21</v>
+      </c>
+      <c r="E15">
+        <v>673.58</v>
+      </c>
+      <c r="F15">
+        <v>67523328</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>67523328</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>6917656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B16">
+        <v>600.54999999999995</v>
+      </c>
+      <c r="C16">
+        <v>620.125</v>
+      </c>
+      <c r="D16">
+        <v>558.79</v>
+      </c>
+      <c r="E16">
+        <v>563</v>
+      </c>
+      <c r="F16">
+        <v>51786958</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-51786958</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>15736370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B17">
+        <v>626.05999999999995</v>
+      </c>
+      <c r="C17">
+        <v>627.84190000000001</v>
+      </c>
+      <c r="D17">
+        <v>539.49</v>
+      </c>
+      <c r="E17">
+        <v>597.95000000000005</v>
+      </c>
+      <c r="F17">
+        <v>89396459</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>89396459</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>37609501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B18">
+        <v>655.8</v>
+      </c>
+      <c r="C18">
+        <v>668.45</v>
+      </c>
+      <c r="D18">
+        <v>600</v>
+      </c>
+      <c r="E18">
+        <v>621.44000000000005</v>
+      </c>
+      <c r="F18">
+        <v>64799898</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>64799898</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>154196357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B19">
+        <v>687.99</v>
+      </c>
+      <c r="C19">
+        <v>700.7</v>
+      </c>
+      <c r="D19">
+        <v>651.70500000000004</v>
+      </c>
+      <c r="E19">
+        <v>653.20000000000005</v>
+      </c>
+      <c r="F19">
+        <v>30207960</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>30207960</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>95007858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B20">
+        <v>718.28</v>
+      </c>
+      <c r="C20">
+        <v>721.11</v>
+      </c>
+      <c r="D20">
+        <v>685</v>
+      </c>
+      <c r="E20">
+        <v>686.44</v>
+      </c>
+      <c r="F20">
+        <v>23732158</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>23732158</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>53940118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B21">
+        <v>690.11</v>
+      </c>
+      <c r="C21">
+        <v>719</v>
+      </c>
+      <c r="D21">
+        <v>685.05</v>
+      </c>
+      <c r="E21">
+        <v>718.43</v>
+      </c>
+      <c r="F21">
+        <v>27136239</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>27136239</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>50868397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B22">
+        <v>700</v>
+      </c>
+      <c r="C22">
+        <v>706.7</v>
+      </c>
+      <c r="D22">
+        <v>659.51</v>
+      </c>
+      <c r="E22">
+        <v>675.5</v>
+      </c>
+      <c r="F22">
+        <v>39767316</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>-39767316</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>-12631077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B23">
+        <v>726.15</v>
+      </c>
+      <c r="C23">
+        <v>737.20659999999998</v>
+      </c>
+      <c r="D23">
+        <v>670.58</v>
+      </c>
+      <c r="E23">
+        <v>682.22</v>
+      </c>
+      <c r="F23">
+        <v>38126722</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>38126722</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>-1640594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B24">
+        <v>711.85</v>
+      </c>
+      <c r="C24">
+        <v>745</v>
+      </c>
+      <c r="D24">
+        <v>694.17</v>
+      </c>
+      <c r="E24">
+        <v>742.02</v>
+      </c>
+      <c r="F24">
+        <v>36766950</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>36766950</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>74893672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B25">
+        <v>662.13</v>
+      </c>
+      <c r="C25">
+        <v>713.60990000000004</v>
+      </c>
+      <c r="D25">
+        <v>619</v>
+      </c>
+      <c r="E25">
+        <v>698.84</v>
+      </c>
+      <c r="F25">
+        <v>66606882</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>-66606882</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>-29839932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B26">
+        <v>762.64</v>
+      </c>
+      <c r="C26">
+        <v>768.5</v>
+      </c>
+      <c r="D26">
+        <v>710.2</v>
+      </c>
+      <c r="E26">
+        <v>714.5</v>
+      </c>
+      <c r="F26">
+        <v>36594555</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>36594555</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>-30012327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B27">
+        <v>795</v>
+      </c>
+      <c r="C27">
+        <v>796.78989999999999</v>
+      </c>
+      <c r="D27">
+        <v>777.37</v>
+      </c>
+      <c r="E27">
+        <v>781.3</v>
+      </c>
+      <c r="F27">
+        <v>18958255</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>18958255</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>55552810</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B28">
+        <v>780.9</v>
+      </c>
+      <c r="C28">
+        <v>794.69</v>
+      </c>
+      <c r="D28">
+        <v>776.27</v>
+      </c>
+      <c r="E28">
+        <v>787.38</v>
+      </c>
+      <c r="F28">
+        <v>17957058</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>17957058</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>36915313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B29">
+        <v>779.09</v>
+      </c>
+      <c r="C29">
+        <v>799.84</v>
+      </c>
+      <c r="D29">
+        <v>762.01</v>
+      </c>
+      <c r="E29">
+        <v>798.15</v>
+      </c>
+      <c r="F29">
+        <v>25878526</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>25878526</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>43835584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B30">
+        <v>818</v>
+      </c>
+      <c r="C30">
+        <v>821</v>
+      </c>
+      <c r="D30">
+        <v>792.44</v>
+      </c>
+      <c r="E30">
+        <v>796.22</v>
+      </c>
+      <c r="F30">
+        <v>19802324</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>-19802324</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>6076202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B31">
+        <v>801.26</v>
+      </c>
+      <c r="C31">
+        <v>817.33</v>
+      </c>
+      <c r="D31">
+        <v>785.3306</v>
+      </c>
+      <c r="E31">
+        <v>816.12</v>
+      </c>
+      <c r="F31">
+        <v>23768313</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>23768313</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>3965989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B32">
+        <v>812.44</v>
+      </c>
+      <c r="C32">
+        <v>829.87990000000002</v>
+      </c>
+      <c r="D32">
+        <v>801.72500000000002</v>
+      </c>
+      <c r="E32">
+        <v>811.66</v>
+      </c>
+      <c r="F32">
+        <v>21622753</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>-21622753</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>2145560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B33">
+        <v>843.63499999999999</v>
+      </c>
+      <c r="C33">
+        <v>844.82</v>
+      </c>
+      <c r="D33">
+        <v>800.02</v>
+      </c>
+      <c r="E33">
+        <v>804.82</v>
+      </c>
+      <c r="F33">
+        <v>35723444</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>-35723444</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>-57346197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B34">
+        <v>855.12</v>
+      </c>
+      <c r="C34">
+        <v>859.8</v>
+      </c>
+      <c r="D34">
+        <v>841.75</v>
+      </c>
+      <c r="E34">
+        <v>849.46</v>
+      </c>
+      <c r="F34">
+        <v>15027305</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>15027305</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>-20696139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B35">
+        <v>869.67</v>
+      </c>
+      <c r="C35">
+        <v>877.77</v>
+      </c>
+      <c r="D35">
+        <v>854.75</v>
+      </c>
+      <c r="E35">
+        <v>863.42</v>
+      </c>
+      <c r="F35">
+        <v>20161719</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>20161719</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>35189024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B36">
+        <v>845</v>
+      </c>
+      <c r="C36">
+        <v>864.77</v>
+      </c>
+      <c r="D36">
+        <v>838.97</v>
+      </c>
+      <c r="E36">
+        <v>852.23</v>
+      </c>
+      <c r="F36">
+        <v>18566637</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>-18566637</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>1595082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B37">
+        <v>855</v>
+      </c>
+      <c r="C37">
+        <v>856.5</v>
+      </c>
+      <c r="D37">
+        <v>833.42</v>
+      </c>
+      <c r="E37">
+        <v>849.99</v>
+      </c>
+      <c r="F37">
+        <v>15812661</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>-15812661</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>-34379298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B38">
+        <v>877.02</v>
+      </c>
+      <c r="C38">
+        <v>878.08</v>
+      </c>
+      <c r="D38">
+        <v>853.06460000000004</v>
+      </c>
+      <c r="E38">
+        <v>854.69</v>
+      </c>
+      <c r="F38">
+        <v>18343510</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>18343510</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>2530849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B39">
+        <v>844.68</v>
+      </c>
+      <c r="C39">
+        <v>880.5</v>
+      </c>
+      <c r="D39">
+        <v>842.20060000000001</v>
+      </c>
+      <c r="E39">
+        <v>872.79</v>
+      </c>
+      <c r="F39">
+        <v>23998098</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>23998098</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>42341608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B40">
+        <v>814.29</v>
+      </c>
+      <c r="C40">
+        <v>842</v>
+      </c>
+      <c r="D40">
+        <v>795.56010000000003</v>
+      </c>
+      <c r="E40">
+        <v>839.81</v>
+      </c>
+      <c r="F40">
+        <v>25391385</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>-25391385</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>-1393287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B41">
+        <v>830.00030000000004</v>
+      </c>
+      <c r="C41">
+        <v>842.41</v>
+      </c>
+      <c r="D41">
+        <v>780.1</v>
+      </c>
+      <c r="E41">
+        <v>793.53</v>
+      </c>
+      <c r="F41">
+        <v>34990754</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>-34990754</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>-60382139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B42">
+        <v>820</v>
+      </c>
+      <c r="C42">
+        <v>848</v>
+      </c>
+      <c r="D42">
+        <v>801</v>
+      </c>
+      <c r="E42">
+        <v>835.43</v>
+      </c>
+      <c r="F42">
+        <v>26378048</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>26378048</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>-8612706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B43">
+        <v>870.35</v>
+      </c>
+      <c r="C43">
+        <v>891.5</v>
+      </c>
+      <c r="D43">
+        <v>858.66</v>
+      </c>
+      <c r="E43">
+        <v>864.16</v>
+      </c>
+      <c r="F43">
+        <v>27333955</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>27333955</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>53712003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B44">
+        <v>891.38</v>
+      </c>
+      <c r="C44">
+        <v>895.9</v>
+      </c>
+      <c r="D44">
+        <v>871.6</v>
+      </c>
+      <c r="E44">
+        <v>883.09</v>
+      </c>
+      <c r="F44">
+        <v>23131603</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>23131603</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>50465558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B45">
+        <v>855</v>
+      </c>
+      <c r="C45">
+        <v>900.4</v>
+      </c>
+      <c r="D45">
+        <v>838.82010000000002</v>
+      </c>
+      <c r="E45">
+        <v>880.8</v>
+      </c>
+      <c r="F45">
+        <v>41173397</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>-41173397</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>-18041794</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B46">
+        <v>834.31</v>
+      </c>
+      <c r="C46">
+        <v>848</v>
+      </c>
+      <c r="D46">
+        <v>828.62</v>
+      </c>
+      <c r="E46">
+        <v>846.64</v>
+      </c>
+      <c r="F46">
+        <v>20066497</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>-20066497</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>-61239894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B47">
+        <v>855</v>
+      </c>
+      <c r="C47">
+        <v>855.71990000000005</v>
+      </c>
+      <c r="D47">
+        <v>841.42010000000005</v>
+      </c>
+      <c r="E47">
+        <v>844.99</v>
+      </c>
+      <c r="F47">
+        <v>20598133</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>-20598133</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>-40664630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B48">
+        <v>858.74</v>
+      </c>
+      <c r="C48">
+        <v>859.5</v>
+      </c>
+      <c r="D48">
+        <v>837.28</v>
+      </c>
+      <c r="E48">
+        <v>850.45</v>
+      </c>
+      <c r="F48">
+        <v>25665883</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>25665883</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>5067750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B49">
+        <v>837.8</v>
+      </c>
+      <c r="C49">
+        <v>850</v>
+      </c>
+      <c r="D49">
+        <v>833</v>
+      </c>
+      <c r="E49">
+        <v>844.55</v>
+      </c>
+      <c r="F49">
+        <v>25366980</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>-25366980</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>298903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B50">
+        <v>852</v>
+      </c>
+      <c r="C50">
+        <v>859.9</v>
+      </c>
+      <c r="D50">
+        <v>819.1</v>
+      </c>
+      <c r="E50">
+        <v>826.16</v>
+      </c>
+      <c r="F50">
+        <v>38777596</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>-38777596</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>-64144576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B51">
+        <v>843.39</v>
+      </c>
+      <c r="C51">
+        <v>863</v>
+      </c>
+      <c r="D51">
+        <v>838.75</v>
+      </c>
+      <c r="E51">
+        <v>845</v>
+      </c>
+      <c r="F51">
+        <v>31266327</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>31266327</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>-7511269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B52">
+        <v>852.76</v>
+      </c>
+      <c r="C52">
+        <v>860.47</v>
+      </c>
+      <c r="D52">
+        <v>832</v>
+      </c>
+      <c r="E52">
+        <v>854.41</v>
+      </c>
+      <c r="F52">
+        <v>33312496</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>33312496</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>64578823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B53">
+        <v>831</v>
+      </c>
+      <c r="C53">
+        <v>868</v>
+      </c>
+      <c r="D53">
+        <v>827.34</v>
+      </c>
+      <c r="E53">
+        <v>849.44</v>
+      </c>
+      <c r="F53">
+        <v>45985569</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>-45985569</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>-12673073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B54">
+        <v>849.4</v>
+      </c>
+      <c r="C54">
+        <v>854.43</v>
+      </c>
+      <c r="D54">
+        <v>803.62220000000002</v>
+      </c>
+      <c r="E54">
+        <v>811.19</v>
+      </c>
+      <c r="F54">
+        <v>59554146</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>-59554146</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>-105539715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B55">
+        <v>856</v>
+      </c>
+      <c r="C55">
+        <v>884.49</v>
+      </c>
+      <c r="D55">
+        <v>838.39</v>
+      </c>
+      <c r="E55">
+        <v>880.02</v>
+      </c>
+      <c r="F55">
+        <v>75055528</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>75055528</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>15501382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B56">
+        <v>777.63</v>
+      </c>
+      <c r="C56">
+        <v>816.99</v>
+      </c>
+      <c r="D56">
+        <v>775.2</v>
+      </c>
+      <c r="E56">
+        <v>816.04</v>
+      </c>
+      <c r="F56">
+        <v>51498948</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>-51498948</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>23556580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B57">
+        <v>758.49</v>
+      </c>
+      <c r="C57">
+        <v>774</v>
+      </c>
+      <c r="D57">
+        <v>749.1</v>
+      </c>
+      <c r="E57">
+        <v>755.98</v>
+      </c>
+      <c r="F57">
+        <v>44699965</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>-44699965</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>-96198913</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B58">
+        <v>723.66</v>
+      </c>
+      <c r="C58">
+        <v>740.84</v>
+      </c>
+      <c r="D58">
+        <v>719.2</v>
+      </c>
+      <c r="E58">
+        <v>735.11</v>
+      </c>
+      <c r="F58">
+        <v>32245165</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>-32245165</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>-76945130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B59">
+        <v>719.46</v>
+      </c>
+      <c r="C59">
+        <v>744.48990000000003</v>
+      </c>
+      <c r="D59">
+        <v>717.18949999999995</v>
+      </c>
+      <c r="E59">
+        <v>729.77</v>
+      </c>
+      <c r="F59">
+        <v>48638189</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>-48638189</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>-80883354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B60">
+        <v>699.99</v>
+      </c>
+      <c r="C60">
+        <v>718.72</v>
+      </c>
+      <c r="D60">
+        <v>691.12</v>
+      </c>
+      <c r="E60">
+        <v>705.67</v>
+      </c>
+      <c r="F60">
+        <v>49649928</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>-49649928</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>-98288117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B61">
+        <v>672</v>
+      </c>
+      <c r="C61">
+        <v>696.6</v>
+      </c>
+      <c r="D61">
+        <v>668.36030000000005</v>
+      </c>
+      <c r="E61">
+        <v>694.78</v>
+      </c>
+      <c r="F61">
+        <v>42846021</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>-42846021</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>-92495949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B62">
+        <v>661</v>
+      </c>
+      <c r="C62">
+        <v>669.9</v>
+      </c>
+      <c r="D62">
+        <v>655</v>
+      </c>
+      <c r="E62">
+        <v>665.99</v>
+      </c>
+      <c r="F62">
+        <v>22910811</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>-22910811</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>-65756832</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B63">
+        <v>674.51</v>
+      </c>
+      <c r="C63">
+        <v>681.4</v>
+      </c>
+      <c r="D63">
+        <v>660.8</v>
+      </c>
+      <c r="E63">
+        <v>663.69</v>
+      </c>
+      <c r="F63">
+        <v>31553561</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>-31553561</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>-54464372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B64">
+        <v>642.99</v>
+      </c>
+      <c r="C64">
+        <v>666.09</v>
+      </c>
+      <c r="D64">
+        <v>641</v>
+      </c>
+      <c r="E64">
+        <v>661.77</v>
+      </c>
+      <c r="F64">
+        <v>22865568</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>-22865568</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>-54419129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B65">
+        <v>632.20000000000005</v>
+      </c>
+      <c r="C65">
+        <v>651.49990000000003</v>
+      </c>
+      <c r="D65">
+        <v>622.57010000000002</v>
+      </c>
+      <c r="E65">
+        <v>645.98</v>
+      </c>
+      <c r="F65">
+        <v>33172972</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>-33172972</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>-56038540</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B66">
+        <v>648</v>
+      </c>
+      <c r="C66">
+        <v>649.88</v>
+      </c>
+      <c r="D66">
+        <v>614.23</v>
+      </c>
+      <c r="E66">
+        <v>640.34</v>
+      </c>
+      <c r="F66">
+        <v>51861644</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>-51861644</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>-85034616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B67">
+        <v>666.24</v>
+      </c>
+      <c r="C67">
+        <v>668.5</v>
+      </c>
+      <c r="D67">
+        <v>646.07000000000005</v>
+      </c>
+      <c r="E67">
+        <v>649.86</v>
+      </c>
+      <c r="F67">
+        <v>58045264</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="3">F67*G67</f>
+        <v>58045264</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="2"/>
+        <v>6183620</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B68">
+        <v>668.9</v>
+      </c>
+      <c r="C68">
+        <v>695</v>
+      </c>
+      <c r="D68">
+        <v>628.54</v>
+      </c>
+      <c r="E68">
+        <v>695</v>
+      </c>
+      <c r="F68">
+        <v>222126194</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G131" si="4">IF(E68&gt;E67,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>222126194</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I131" si="5">SUM(H67:H68)</f>
+        <v>280171458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B69">
+        <v>628.19000000000005</v>
+      </c>
+      <c r="C69">
+        <v>658.82</v>
+      </c>
+      <c r="D69">
+        <v>619.5</v>
+      </c>
+      <c r="E69">
+        <v>655.9</v>
+      </c>
+      <c r="F69">
+        <v>56270144</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>-56270144</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>165856050</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B70">
+        <v>628.23</v>
+      </c>
+      <c r="C70">
+        <v>632.5</v>
+      </c>
+      <c r="D70">
+        <v>605</v>
+      </c>
+      <c r="E70">
+        <v>622.77</v>
+      </c>
+      <c r="F70">
+        <v>42095813</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>-42095813</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>-98365957</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B71">
+        <v>643.28</v>
+      </c>
+      <c r="C71">
+        <v>646.9</v>
+      </c>
+      <c r="D71">
+        <v>623.79999999999995</v>
+      </c>
+      <c r="E71">
+        <v>633.25</v>
+      </c>
+      <c r="F71">
+        <v>45223559</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>45223559</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>3127746</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B72">
+        <v>619</v>
+      </c>
+      <c r="C72">
+        <v>642.74990000000003</v>
+      </c>
+      <c r="D72">
+        <v>610.20010000000002</v>
+      </c>
+      <c r="E72">
+        <v>639.83000000000004</v>
+      </c>
+      <c r="F72">
+        <v>52040649</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>52040649</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>97264208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B73">
+        <v>615.01</v>
+      </c>
+      <c r="C73">
+        <v>624</v>
+      </c>
+      <c r="D73">
+        <v>596.79999999999995</v>
+      </c>
+      <c r="E73">
+        <v>609.99</v>
+      </c>
+      <c r="F73">
+        <v>46474974</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>-46474974</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>5565675</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B74">
+        <v>574.37</v>
+      </c>
+      <c r="C74">
+        <v>627.75</v>
+      </c>
+      <c r="D74">
+        <v>566.34</v>
+      </c>
+      <c r="E74">
+        <v>627.07000000000005</v>
+      </c>
+      <c r="F74">
+        <v>67083153</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>67083153</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>20608179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B75">
+        <v>653.69000000000005</v>
+      </c>
+      <c r="C75">
+        <v>654.32000000000005</v>
+      </c>
+      <c r="D75">
+        <v>588</v>
+      </c>
+      <c r="E75">
+        <v>604.48</v>
+      </c>
+      <c r="F75">
+        <v>71291190</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>-71291190</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>-4208037</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B76">
+        <v>625.505</v>
+      </c>
+      <c r="C76">
+        <v>651.28</v>
+      </c>
+      <c r="D76">
+        <v>618.5</v>
+      </c>
+      <c r="E76">
+        <v>649.88</v>
+      </c>
+      <c r="F76">
+        <v>64265029</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>64265029</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>-7026161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B77">
+        <v>604.91970000000003</v>
+      </c>
+      <c r="C77">
+        <v>648.78560000000004</v>
+      </c>
+      <c r="D77">
+        <v>603.04999999999995</v>
+      </c>
+      <c r="E77">
+        <v>641.76</v>
+      </c>
+      <c r="F77">
+        <v>56309709</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>-56309709</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>7955320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B78">
+        <v>591.01</v>
+      </c>
+      <c r="C78">
+        <v>599.04</v>
+      </c>
+      <c r="D78">
+        <v>585.5</v>
+      </c>
+      <c r="E78">
+        <v>599.04</v>
+      </c>
+      <c r="F78">
+        <v>29401314</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>-29401314</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>-85711023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B79">
+        <v>590.02</v>
+      </c>
+      <c r="C79">
+        <v>598.97</v>
+      </c>
+      <c r="D79">
+        <v>582.42999999999995</v>
+      </c>
+      <c r="E79">
+        <v>593.38</v>
+      </c>
+      <c r="F79">
+        <v>42552003</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>-42552003</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>-71953317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B80">
+        <v>556.44000000000005</v>
+      </c>
+      <c r="C80">
+        <v>571.54</v>
+      </c>
+      <c r="D80">
+        <v>541.21</v>
+      </c>
+      <c r="E80">
+        <v>568.82000000000005</v>
+      </c>
+      <c r="F80">
+        <v>47775653</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>-47775653</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>-90327656</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B81">
+        <v>597.59</v>
+      </c>
+      <c r="C81">
+        <v>597.85</v>
+      </c>
+      <c r="D81">
+        <v>572.04999999999995</v>
+      </c>
+      <c r="E81">
+        <v>584.76</v>
+      </c>
+      <c r="F81">
+        <v>39133346</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>39133346</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>-8642307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B82">
+        <v>602.21</v>
+      </c>
+      <c r="C82">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="D82">
+        <v>554.51</v>
+      </c>
+      <c r="E82">
+        <v>567.6</v>
+      </c>
+      <c r="F82">
+        <v>63003052</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>-63003052</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>-23869706</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B83">
+        <v>581.16</v>
+      </c>
+      <c r="C83">
+        <v>598.78</v>
+      </c>
+      <c r="D83">
+        <v>578.45000000000005</v>
+      </c>
+      <c r="E83">
+        <v>585.76</v>
+      </c>
+      <c r="F83">
+        <v>37561078</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>37561078</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>-25441974</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B84">
+        <v>550.05999999999995</v>
+      </c>
+      <c r="C84">
+        <v>574</v>
+      </c>
+      <c r="D84">
+        <v>545.37</v>
+      </c>
+      <c r="E84">
+        <v>574</v>
+      </c>
+      <c r="F84">
+        <v>48930162</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>-48930162</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>-11369084</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B85">
+        <v>540.4</v>
+      </c>
+      <c r="C85">
+        <v>559.99</v>
+      </c>
+      <c r="D85">
+        <v>526.20000000000005</v>
+      </c>
+      <c r="E85">
+        <v>555.38</v>
+      </c>
+      <c r="F85">
+        <v>52058771</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>-52058771</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>-100988933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B86">
+        <v>503.5</v>
+      </c>
+      <c r="C86">
+        <v>526</v>
+      </c>
+      <c r="D86">
+        <v>501.79</v>
+      </c>
+      <c r="E86">
+        <v>521.85</v>
+      </c>
+      <c r="F86">
+        <v>50260304</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>-50260304</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>-102319075</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B87">
+        <v>497.99</v>
+      </c>
+      <c r="C87">
+        <v>502.5</v>
+      </c>
+      <c r="D87">
+        <v>489.06</v>
+      </c>
+      <c r="E87">
+        <v>489.61</v>
+      </c>
+      <c r="F87">
+        <v>32911922</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>-32911922</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>-83172226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B88">
+        <v>492</v>
+      </c>
+      <c r="C88">
+        <v>508.6112</v>
+      </c>
+      <c r="D88">
+        <v>487.57</v>
+      </c>
+      <c r="E88">
+        <v>499.27</v>
+      </c>
+      <c r="F88">
+        <v>62475346</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>62475346</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>29563424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B89">
+        <v>448.35</v>
+      </c>
+      <c r="C89">
+        <v>496</v>
+      </c>
+      <c r="D89">
+        <v>443.50009999999997</v>
+      </c>
+      <c r="E89">
+        <v>486.64</v>
+      </c>
+      <c r="F89">
+        <v>78044024</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>-78044024</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>-15568678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B90">
+        <v>460.17</v>
+      </c>
+      <c r="C90">
+        <v>462</v>
+      </c>
+      <c r="D90">
+        <v>433.01</v>
+      </c>
+      <c r="E90">
+        <v>441.61</v>
+      </c>
+      <c r="F90">
+        <v>61188281</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>-61188281</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>-139232305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B91">
+        <v>408.93</v>
+      </c>
+      <c r="C91">
+        <v>412.45</v>
+      </c>
+      <c r="D91">
+        <v>404.08679999999998</v>
+      </c>
+      <c r="E91">
+        <v>408.09</v>
+      </c>
+      <c r="F91">
+        <v>26838635</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>-26838635</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>-88026916</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B92">
+        <v>410.85</v>
+      </c>
+      <c r="C92">
+        <v>412.53190000000001</v>
+      </c>
+      <c r="D92">
+        <v>401.66</v>
+      </c>
+      <c r="E92">
+        <v>408.5</v>
+      </c>
+      <c r="F92">
+        <v>19830351</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>19830351</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="5"/>
+        <v>-7008284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B93">
+        <v>415.05</v>
+      </c>
+      <c r="C93">
+        <v>423</v>
+      </c>
+      <c r="D93">
+        <v>409.52</v>
+      </c>
+      <c r="E93">
+        <v>411.76</v>
+      </c>
+      <c r="F93">
+        <v>19940500</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>19940500</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="5"/>
+        <v>39770851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B94">
+        <v>416.45</v>
+      </c>
+      <c r="C94">
+        <v>418.69499999999999</v>
+      </c>
+      <c r="D94">
+        <v>410.58</v>
+      </c>
+      <c r="E94">
+        <v>417.13</v>
+      </c>
+      <c r="F94">
+        <v>17357722</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>17357722</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="5"/>
+        <v>37298222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B95">
+        <v>420.09</v>
+      </c>
+      <c r="C95">
+        <v>420.09</v>
+      </c>
+      <c r="D95">
+        <v>396.0301</v>
+      </c>
+      <c r="E95">
+        <v>410.36</v>
+      </c>
+      <c r="F95">
+        <v>30284224</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>-30284224</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="5"/>
+        <v>-12926502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B96">
+        <v>439.5</v>
+      </c>
+      <c r="C96">
+        <v>452.5</v>
+      </c>
+      <c r="D96">
+        <v>421</v>
+      </c>
+      <c r="E96">
+        <v>421.26</v>
+      </c>
+      <c r="F96">
+        <v>34833025</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>34833025</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="5"/>
+        <v>4548801</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B97">
+        <v>436.1</v>
+      </c>
+      <c r="C97">
+        <v>436.57</v>
+      </c>
+      <c r="D97">
+        <v>424.28</v>
+      </c>
+      <c r="E97">
+        <v>429.95</v>
+      </c>
+      <c r="F97">
+        <v>21706014</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>21706014</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="5"/>
+        <v>56539039</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B98">
+        <v>428.3</v>
+      </c>
+      <c r="C98">
+        <v>440</v>
+      </c>
+      <c r="D98">
+        <v>424.00009999999997</v>
+      </c>
+      <c r="E98">
+        <v>438.09</v>
+      </c>
+      <c r="F98">
+        <v>28414523</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>28414523</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="5"/>
+        <v>50120537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B99">
+        <v>430.62</v>
+      </c>
+      <c r="C99">
+        <v>435.4</v>
+      </c>
+      <c r="D99">
+        <v>417.1</v>
+      </c>
+      <c r="E99">
+        <v>420.98</v>
+      </c>
+      <c r="F99">
+        <v>32143057</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>-32143057</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="5"/>
+        <v>-3728534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B100">
+        <v>409.73</v>
+      </c>
+      <c r="C100">
+        <v>427.77</v>
+      </c>
+      <c r="D100">
+        <v>406.69</v>
+      </c>
+      <c r="E100">
+        <v>423.9</v>
+      </c>
+      <c r="F100">
+        <v>34351715</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>34351715</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="5"/>
+        <v>2208658</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B101">
+        <v>394</v>
+      </c>
+      <c r="C101">
+        <v>406.97989999999999</v>
+      </c>
+      <c r="D101">
+        <v>392.3</v>
+      </c>
+      <c r="E101">
+        <v>400.51</v>
+      </c>
+      <c r="F101">
+        <v>29021118</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>-29021118</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="5"/>
+        <v>5330597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B102">
+        <v>406.8954</v>
+      </c>
+      <c r="C102">
+        <v>407.5915</v>
+      </c>
+      <c r="D102">
+        <v>379.11</v>
+      </c>
+      <c r="E102">
+        <v>388.04</v>
+      </c>
+      <c r="F102">
+        <v>42587639</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>-42587639</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="5"/>
+        <v>-71608757</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B103">
+        <v>409.96</v>
+      </c>
+      <c r="C103">
+        <v>418.06</v>
+      </c>
+      <c r="D103">
+        <v>406.46</v>
+      </c>
+      <c r="E103">
+        <v>410.83</v>
+      </c>
+      <c r="F103">
+        <v>22655308</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>22655308</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="5"/>
+        <v>-19932331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B104">
+        <v>416.48</v>
+      </c>
+      <c r="C104">
+        <v>418.6</v>
+      </c>
+      <c r="D104">
+        <v>406</v>
+      </c>
+      <c r="E104">
+        <v>406.02</v>
+      </c>
+      <c r="F104">
+        <v>25451409</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>-25451409</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="5"/>
+        <v>-2796101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B105">
+        <v>423.76</v>
+      </c>
+      <c r="C105">
+        <v>430.5</v>
+      </c>
+      <c r="D105">
+        <v>420.1</v>
+      </c>
+      <c r="E105">
+        <v>424.68</v>
+      </c>
+      <c r="F105">
+        <v>22686506</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>22686506</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="5"/>
+        <v>-2764903</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B106">
+        <v>411.63</v>
+      </c>
+      <c r="C106">
+        <v>425.76</v>
+      </c>
+      <c r="D106">
+        <v>410</v>
+      </c>
+      <c r="E106">
+        <v>420.28</v>
+      </c>
+      <c r="F106">
+        <v>28239161</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>-28239161</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="5"/>
+        <v>-5552655</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B107">
+        <v>421.84</v>
+      </c>
+      <c r="C107">
+        <v>422.88589999999999</v>
+      </c>
+      <c r="D107">
+        <v>407.38010000000003</v>
+      </c>
+      <c r="E107">
+        <v>420.63</v>
+      </c>
+      <c r="F107">
+        <v>33716980</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>33716980</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="5"/>
+        <v>5477819</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B108">
+        <v>441.92</v>
+      </c>
+      <c r="C108">
+        <v>445.23</v>
+      </c>
+      <c r="D108">
+        <v>424.51</v>
+      </c>
+      <c r="E108">
+        <v>425.79</v>
+      </c>
+      <c r="F108">
+        <v>39993191</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>39993191</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="5"/>
+        <v>73710171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B109">
+        <v>422.7</v>
+      </c>
+      <c r="C109">
+        <v>432.95</v>
+      </c>
+      <c r="D109">
+        <v>421.25</v>
+      </c>
+      <c r="E109">
+        <v>422.64</v>
+      </c>
+      <c r="F109">
+        <v>32370461</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>-32370461</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="5"/>
+        <v>7622730</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B110">
+        <v>431.75</v>
+      </c>
+      <c r="C110">
+        <v>431.75</v>
+      </c>
+      <c r="D110">
+        <v>419.05009999999999</v>
+      </c>
+      <c r="E110">
+        <v>421.94</v>
+      </c>
+      <c r="F110">
+        <v>31656289</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="3"/>
+        <v>-31656289</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="5"/>
+        <v>-64026750</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B111">
+        <v>446.24</v>
+      </c>
+      <c r="C111">
+        <v>447</v>
+      </c>
+      <c r="D111">
+        <v>428.87</v>
+      </c>
+      <c r="E111">
+        <v>430.83</v>
+      </c>
+      <c r="F111">
+        <v>36287843</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="3"/>
+        <v>36287843</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="5"/>
+        <v>4631554</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B112">
+        <v>454.44</v>
+      </c>
+      <c r="C112">
+        <v>455.94990000000001</v>
+      </c>
+      <c r="D112">
+        <v>438.85</v>
+      </c>
+      <c r="E112">
+        <v>439.67</v>
+      </c>
+      <c r="F112">
+        <v>32775879</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="3"/>
+        <v>32775879</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="5"/>
+        <v>69063722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B113">
+        <v>450.31</v>
+      </c>
+      <c r="C113">
+        <v>456.57</v>
+      </c>
+      <c r="D113">
+        <v>442.5</v>
+      </c>
+      <c r="E113">
+        <v>448.88</v>
+      </c>
+      <c r="F113">
+        <v>35672354</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="3"/>
+        <v>35672354</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="5"/>
+        <v>68448233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B114">
+        <v>449.78</v>
+      </c>
+      <c r="C114">
+        <v>465.9</v>
+      </c>
+      <c r="D114">
+        <v>447.35</v>
+      </c>
+      <c r="E114">
+        <v>461.3</v>
+      </c>
+      <c r="F114">
+        <v>48045394</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="3"/>
+        <v>48045394</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="5"/>
+        <v>83717748</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B115">
+        <v>443.35</v>
+      </c>
+      <c r="C115">
+        <v>448.89</v>
+      </c>
+      <c r="D115">
+        <v>436.6</v>
+      </c>
+      <c r="E115">
+        <v>446.65</v>
+      </c>
+      <c r="F115">
+        <v>34463665</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="3"/>
+        <v>-34463665</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="5"/>
+        <v>13581729</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B116">
+        <v>442</v>
+      </c>
+      <c r="C116">
+        <v>448.74</v>
+      </c>
+      <c r="D116">
+        <v>438.58</v>
+      </c>
+      <c r="E116">
+        <v>442.3</v>
+      </c>
+      <c r="F116">
+        <v>38791133</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="3"/>
+        <v>-38791133</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="5"/>
+        <v>-73254798</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B117">
+        <v>430.13</v>
+      </c>
+      <c r="C117">
+        <v>434.5899</v>
+      </c>
+      <c r="D117">
+        <v>426.46010000000001</v>
+      </c>
+      <c r="E117">
+        <v>434</v>
+      </c>
+      <c r="F117">
+        <v>28925656</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="3"/>
+        <v>-28925656</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="5"/>
+        <v>-67716789</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B118">
+        <v>438.44</v>
+      </c>
+      <c r="C118">
+        <v>439</v>
+      </c>
+      <c r="D118">
+        <v>425.3</v>
+      </c>
+      <c r="E118">
+        <v>425.92</v>
+      </c>
+      <c r="F118">
+        <v>40421116</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="3"/>
+        <v>-40421116</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="5"/>
+        <v>-69346772</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B119">
+        <v>419.87</v>
+      </c>
+      <c r="C119">
+        <v>429.9</v>
+      </c>
+      <c r="D119">
+        <v>413.84500000000003</v>
+      </c>
+      <c r="E119">
+        <v>425.3</v>
+      </c>
+      <c r="F119">
+        <v>43127709</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="3"/>
+        <v>-43127709</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="5"/>
+        <v>-83548825</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B120">
+        <v>423.79</v>
+      </c>
+      <c r="C120">
+        <v>428.7799</v>
+      </c>
+      <c r="D120">
+        <v>406.05</v>
+      </c>
+      <c r="E120">
+        <v>413.98</v>
+      </c>
+      <c r="F120">
+        <v>49146259</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="3"/>
+        <v>-49146259</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="5"/>
+        <v>-92273968</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B121">
+        <v>423.35</v>
+      </c>
+      <c r="C121">
+        <v>433.64</v>
+      </c>
+      <c r="D121">
+        <v>419.33</v>
+      </c>
+      <c r="E121">
+        <v>425.68</v>
+      </c>
+      <c r="F121">
+        <v>44722786</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="3"/>
+        <v>44722786</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="5"/>
+        <v>-4423473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B122">
+        <v>421.39</v>
+      </c>
+      <c r="C122">
+        <v>439.13</v>
+      </c>
+      <c r="D122">
+        <v>415</v>
+      </c>
+      <c r="E122">
+        <v>415.09</v>
+      </c>
+      <c r="F122">
+        <v>71430025</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="3"/>
+        <v>-71430025</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="5"/>
+        <v>-26707239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B123">
+        <v>440.76</v>
+      </c>
+      <c r="C123">
+        <v>448.88</v>
+      </c>
+      <c r="D123">
+        <v>434.42</v>
+      </c>
+      <c r="E123">
+        <v>448.16</v>
+      </c>
+      <c r="F123">
+        <v>50741454</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="3"/>
+        <v>50741454</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="5"/>
+        <v>-20688571</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B124">
+        <v>421.32</v>
+      </c>
+      <c r="C124">
+        <v>433.93</v>
+      </c>
+      <c r="D124">
+        <v>420.47</v>
+      </c>
+      <c r="E124">
+        <v>429.01</v>
+      </c>
+      <c r="F124">
+        <v>48145566</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="3"/>
+        <v>-48145566</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="5"/>
+        <v>2595888</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B125">
+        <v>416</v>
+      </c>
+      <c r="C125">
+        <v>428.5</v>
+      </c>
+      <c r="D125">
+        <v>411.6</v>
+      </c>
+      <c r="E125">
+        <v>419.07</v>
+      </c>
+      <c r="F125">
+        <v>50341404</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="3"/>
+        <v>-50341404</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="5"/>
+        <v>-98486970</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B126">
+        <v>424.62</v>
+      </c>
+      <c r="C126">
+        <v>428.08</v>
+      </c>
+      <c r="D126">
+        <v>415.55</v>
+      </c>
+      <c r="E126">
+        <v>421.2</v>
+      </c>
+      <c r="F126">
+        <v>49719561</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="3"/>
+        <v>49719561</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="5"/>
+        <v>-621843</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B127">
+        <v>393.47</v>
+      </c>
+      <c r="C127">
+        <v>408.73230000000001</v>
+      </c>
+      <c r="D127">
+        <v>391.3</v>
+      </c>
+      <c r="E127">
+        <v>407.34</v>
+      </c>
+      <c r="F127">
+        <v>67208459</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="3"/>
+        <v>-67208459</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="5"/>
+        <v>-17488898</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B128">
+        <v>363.8</v>
+      </c>
+      <c r="C128">
+        <v>399.5</v>
+      </c>
+      <c r="D128">
+        <v>351.3</v>
+      </c>
+      <c r="E128">
+        <v>387.79</v>
+      </c>
+      <c r="F128">
+        <v>96561061</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="3"/>
+        <v>-96561061</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="5"/>
+        <v>-163769520</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B129">
+        <v>405.16</v>
+      </c>
+      <c r="C129">
+        <v>412.15</v>
+      </c>
+      <c r="D129">
+        <v>375.88010000000003</v>
+      </c>
+      <c r="E129">
+        <v>380.36</v>
+      </c>
+      <c r="F129">
+        <v>95074176</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="3"/>
+        <v>-95074176</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="5"/>
+        <v>-191635237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B130">
+        <v>429.6</v>
+      </c>
+      <c r="C130">
+        <v>437.76</v>
+      </c>
+      <c r="D130">
+        <v>417.6001</v>
+      </c>
+      <c r="E130">
+        <v>424.23</v>
+      </c>
+      <c r="F130">
+        <v>79580795</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="3"/>
+        <v>79580795</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="5"/>
+        <v>-15493381</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B131">
+        <v>453.13</v>
+      </c>
+      <c r="C131">
+        <v>455.68</v>
+      </c>
+      <c r="D131">
+        <v>407.07</v>
+      </c>
+      <c r="E131">
+        <v>449.39</v>
+      </c>
+      <c r="F131">
+        <v>109476800</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="6">F131*G131</f>
+        <v>109476800</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="5"/>
+        <v>189057595</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B132">
+        <v>447.94</v>
+      </c>
+      <c r="C132">
+        <v>451</v>
+      </c>
+      <c r="D132">
+        <v>428.8</v>
+      </c>
+      <c r="E132">
+        <v>442.15</v>
+      </c>
+      <c r="F132">
+        <v>86406819</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ref="G132:G195" si="7">IF(E132&gt;E131,1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="6"/>
+        <v>-86406819</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132:I195" si="8">SUM(H131:H132)</f>
+        <v>23069981</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B133">
+        <v>415.6</v>
+      </c>
+      <c r="C133">
+        <v>437.79</v>
+      </c>
+      <c r="D133">
+        <v>408.00009999999997</v>
+      </c>
+      <c r="E133">
+        <v>423.43</v>
+      </c>
+      <c r="F133">
+        <v>76779163</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="6"/>
+        <v>-76779163</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="8"/>
+        <v>-163185982</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B134">
+        <v>439.87</v>
+      </c>
+      <c r="C134">
+        <v>457.79</v>
+      </c>
+      <c r="D134">
+        <v>435.31</v>
+      </c>
+      <c r="E134">
+        <v>441.76</v>
+      </c>
+      <c r="F134">
+        <v>72546760</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="6"/>
+        <v>72546760</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="8"/>
+        <v>-4232403</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B135">
+        <v>436.56</v>
+      </c>
+      <c r="C135">
+        <v>461.94</v>
+      </c>
+      <c r="D135">
+        <v>430.7</v>
+      </c>
+      <c r="E135">
+        <v>449.76</v>
+      </c>
+      <c r="F135">
+        <v>97298228</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="6"/>
+        <v>97298228</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="8"/>
+        <v>169844988</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B136">
+        <v>380.95</v>
+      </c>
+      <c r="C136">
+        <v>420</v>
+      </c>
+      <c r="D136">
+        <v>373.3</v>
+      </c>
+      <c r="E136">
+        <v>419.62</v>
+      </c>
+      <c r="F136">
+        <v>83020608</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="6"/>
+        <v>-83020608</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="8"/>
+        <v>14277620</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B137">
+        <v>381.94</v>
+      </c>
+      <c r="C137">
+        <v>382.5</v>
+      </c>
+      <c r="D137">
+        <v>360.5</v>
+      </c>
+      <c r="E137">
+        <v>372.72</v>
+      </c>
+      <c r="F137">
+        <v>60717459</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="6"/>
+        <v>-60717459</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="8"/>
+        <v>-143738067</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B138">
+        <v>386.21</v>
+      </c>
+      <c r="C138">
+        <v>398.99</v>
+      </c>
+      <c r="D138">
+        <v>360.56</v>
+      </c>
+      <c r="E138">
+        <v>371.34</v>
+      </c>
+      <c r="F138">
+        <v>84930608</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="6"/>
+        <v>-84930608</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="8"/>
+        <v>-145648067</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B139">
+        <v>356.6</v>
+      </c>
+      <c r="C139">
+        <v>369</v>
+      </c>
+      <c r="D139">
+        <v>341.51</v>
+      </c>
+      <c r="E139">
+        <v>366.28</v>
+      </c>
+      <c r="F139">
+        <v>79465769</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="6"/>
+        <v>-79465769</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="8"/>
+        <v>-164396377</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B140">
+        <v>356</v>
+      </c>
+      <c r="C140">
+        <v>368.74</v>
+      </c>
+      <c r="D140">
+        <v>329.88</v>
+      </c>
+      <c r="E140">
+        <v>330.21</v>
+      </c>
+      <c r="F140">
+        <v>115465691</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="6"/>
+        <v>-115465691</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="8"/>
+        <v>-194931460</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B141">
+        <v>402.81</v>
+      </c>
+      <c r="C141">
+        <v>428</v>
+      </c>
+      <c r="D141">
+        <v>372.02010000000001</v>
+      </c>
+      <c r="E141">
+        <v>418.32</v>
+      </c>
+      <c r="F141">
+        <v>110321885</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="6"/>
+        <v>110321885</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="8"/>
+        <v>-5143806</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B142">
+        <v>407.23</v>
+      </c>
+      <c r="C142">
+        <v>431.8</v>
+      </c>
+      <c r="D142">
+        <v>402</v>
+      </c>
+      <c r="E142">
+        <v>407</v>
+      </c>
+      <c r="F142">
+        <v>87596086</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="6"/>
+        <v>-87596086</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="8"/>
+        <v>22725799</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B143">
+        <v>478.99</v>
+      </c>
+      <c r="C143">
+        <v>479.04</v>
+      </c>
+      <c r="D143">
+        <v>405.12060000000002</v>
+      </c>
+      <c r="E143">
+        <v>447.37</v>
+      </c>
+      <c r="F143">
+        <v>96176128</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="6"/>
+        <v>96176128</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="8"/>
+        <v>8580042</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B144">
+        <v>502.14</v>
+      </c>
+      <c r="C144">
+        <v>502.49</v>
+      </c>
+      <c r="D144">
+        <v>470.51</v>
+      </c>
+      <c r="E144">
+        <v>475.05</v>
+      </c>
+      <c r="F144">
+        <v>90119419</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="6"/>
+        <v>90119419</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="8"/>
+        <v>186295547</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B145">
+        <v>444.61</v>
+      </c>
+      <c r="C145">
+        <v>500.14</v>
+      </c>
+      <c r="D145">
+        <v>440.11</v>
+      </c>
+      <c r="E145">
+        <v>498.32</v>
+      </c>
+      <c r="F145">
+        <v>115847020</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="6"/>
+        <v>115847020</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="8"/>
+        <v>205966439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B146">
+        <v>2295.12</v>
+      </c>
+      <c r="C146">
+        <v>2318.4899999999998</v>
+      </c>
+      <c r="D146">
+        <v>2186.52</v>
+      </c>
+      <c r="E146">
+        <v>2213.4</v>
+      </c>
+      <c r="F146">
+        <v>20081176</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="6"/>
+        <v>20081176</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="8"/>
+        <v>135928196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B147">
+        <v>2180.46</v>
+      </c>
+      <c r="C147">
+        <v>2295.6</v>
+      </c>
+      <c r="D147">
+        <v>2142.5</v>
+      </c>
+      <c r="E147">
+        <v>2238.75</v>
+      </c>
+      <c r="F147">
+        <v>23693043</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="6"/>
+        <v>23693043</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="8"/>
+        <v>43774219</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B148">
+        <v>2060</v>
+      </c>
+      <c r="C148">
+        <v>2166</v>
+      </c>
+      <c r="D148">
+        <v>2053.6291000000001</v>
+      </c>
+      <c r="E148">
+        <v>2153.17</v>
+      </c>
+      <c r="F148">
+        <v>14239382</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="6"/>
+        <v>-14239382</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="8"/>
+        <v>9453661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B149">
+        <v>1974.89</v>
+      </c>
+      <c r="C149">
+        <v>2027.95</v>
+      </c>
+      <c r="D149">
+        <v>1968</v>
+      </c>
+      <c r="E149">
+        <v>2023.34</v>
+      </c>
+      <c r="F149">
+        <v>10658893</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="6"/>
+        <v>-10658893</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="8"/>
+        <v>-24898275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B150">
+        <v>2126.2750000000001</v>
+      </c>
+      <c r="C150">
+        <v>2129</v>
+      </c>
+      <c r="D150">
+        <v>1927.52</v>
+      </c>
+      <c r="E150">
+        <v>2014.2</v>
+      </c>
+      <c r="F150">
+        <v>20063621</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="6"/>
+        <v>-20063621</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="8"/>
+        <v>-30722514</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B151">
+        <v>2044.76</v>
+      </c>
+      <c r="C151">
+        <v>2095.4899999999998</v>
+      </c>
+      <c r="D151">
+        <v>2025.05</v>
+      </c>
+      <c r="E151">
+        <v>2049.98</v>
+      </c>
+      <c r="F151">
+        <v>21489559</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="6"/>
+        <v>21489559</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="8"/>
+        <v>1425938</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B152">
+        <v>1860.68</v>
+      </c>
+      <c r="C152">
+        <v>2021.99</v>
+      </c>
+      <c r="D152">
+        <v>1857.06</v>
+      </c>
+      <c r="E152">
+        <v>2001.83</v>
+      </c>
+      <c r="F152">
+        <v>20611796</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="6"/>
+        <v>-20611796</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="8"/>
+        <v>877763</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B153">
+        <v>1865</v>
+      </c>
+      <c r="C153">
+        <v>1911</v>
+      </c>
+      <c r="D153">
+        <v>1841.21</v>
+      </c>
+      <c r="E153">
+        <v>1878.53</v>
+      </c>
+      <c r="F153">
+        <v>12205331</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="6"/>
+        <v>-12205331</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="8"/>
+        <v>-32817127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B154">
+        <v>1898.99</v>
+      </c>
+      <c r="C154">
+        <v>1923.9</v>
+      </c>
+      <c r="D154">
+        <v>1845.11</v>
+      </c>
+      <c r="E154">
+        <v>1887.09</v>
+      </c>
+      <c r="F154">
+        <v>16474491</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="6"/>
+        <v>16474491</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="8"/>
+        <v>4269160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B155">
+        <v>1677</v>
+      </c>
+      <c r="C155">
+        <v>1845.86</v>
+      </c>
+      <c r="D155">
+        <v>1672.83</v>
+      </c>
+      <c r="E155">
+        <v>1835.64</v>
+      </c>
+      <c r="F155">
+        <v>20023104</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="6"/>
+        <v>-20023104</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="8"/>
+        <v>-3548613</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B156">
+        <v>1664.99</v>
+      </c>
+      <c r="C156">
+        <v>1668.8</v>
+      </c>
+      <c r="D156">
+        <v>1626.64</v>
+      </c>
+      <c r="E156">
+        <v>1650.71</v>
+      </c>
+      <c r="F156">
+        <v>12577614</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="6"/>
+        <v>-12577614</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="8"/>
+        <v>-32600718</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B157">
+        <v>1611</v>
+      </c>
+      <c r="C157">
+        <v>1651.18</v>
+      </c>
+      <c r="D157">
+        <v>1567.26</v>
+      </c>
+      <c r="E157">
+        <v>1621</v>
+      </c>
+      <c r="F157">
+        <v>20425308</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="6"/>
+        <v>-20425308</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="8"/>
+        <v>-33002922</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B158">
+        <v>1470</v>
+      </c>
+      <c r="C158">
+        <v>1585</v>
+      </c>
+      <c r="D158">
+        <v>1435</v>
+      </c>
+      <c r="E158">
+        <v>1554.76</v>
+      </c>
+      <c r="F158">
+        <v>21898834</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="6"/>
+        <v>-21898834</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="8"/>
+        <v>-42324142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B159">
+        <v>1396</v>
+      </c>
+      <c r="C159">
+        <v>1420</v>
+      </c>
+      <c r="D159">
+        <v>1365</v>
+      </c>
+      <c r="E159">
+        <v>1374.39</v>
+      </c>
+      <c r="F159">
+        <v>8625834</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="6"/>
+        <v>-8625834</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="8"/>
+        <v>-30524668</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B160">
+        <v>1448</v>
+      </c>
+      <c r="C160">
+        <v>1457.5</v>
+      </c>
+      <c r="D160">
+        <v>1385.84</v>
+      </c>
+      <c r="E160">
+        <v>1418.57</v>
+      </c>
+      <c r="F160">
+        <v>7522264</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="6"/>
+        <v>7522264</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="8"/>
+        <v>-1103570</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B161">
+        <v>1499.5364999999999</v>
+      </c>
+      <c r="C161">
+        <v>1499.75</v>
+      </c>
+      <c r="D161">
+        <v>1415.01</v>
+      </c>
+      <c r="E161">
+        <v>1452.71</v>
+      </c>
+      <c r="F161">
+        <v>8896420</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="6"/>
+        <v>8896420</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="8"/>
+        <v>16418684</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B162">
+        <v>1490.83</v>
+      </c>
+      <c r="C162">
+        <v>1517.31</v>
+      </c>
+      <c r="D162">
+        <v>1477.26</v>
+      </c>
+      <c r="E162">
+        <v>1489.58</v>
+      </c>
+      <c r="F162">
+        <v>5992313</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="6"/>
+        <v>5992313</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="8"/>
+        <v>14888733</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B163">
+        <v>1492.99</v>
+      </c>
+      <c r="C163">
+        <v>1499.8384000000001</v>
+      </c>
+      <c r="D163">
+        <v>1468.31</v>
+      </c>
+      <c r="E163">
+        <v>1485.02</v>
+      </c>
+      <c r="F163">
+        <v>4978015</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="6"/>
+        <v>-4978015</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="8"/>
+        <v>1014298</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B164">
+        <v>1495.01</v>
+      </c>
+      <c r="C164">
+        <v>1527.41</v>
+      </c>
+      <c r="D164">
+        <v>1462</v>
+      </c>
+      <c r="E164">
+        <v>1487</v>
+      </c>
+      <c r="F164">
+        <v>8414990</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="6"/>
+        <v>8414990</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="8"/>
+        <v>3436975</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B165">
+        <v>1449.2</v>
+      </c>
+      <c r="C165">
+        <v>1509.8100999999999</v>
+      </c>
+      <c r="D165">
+        <v>1444.3843999999999</v>
+      </c>
+      <c r="E165">
+        <v>1485</v>
+      </c>
+      <c r="F165">
+        <v>8809346</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="6"/>
+        <v>-8809346</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="8"/>
+        <v>-394356</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B166">
+        <v>1515</v>
+      </c>
+      <c r="C166">
+        <v>1517.05</v>
+      </c>
+      <c r="D166">
+        <v>1420.98</v>
+      </c>
+      <c r="E166">
+        <v>1430.76</v>
+      </c>
+      <c r="F166">
+        <v>12246960</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="6"/>
+        <v>-12246960</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="8"/>
+        <v>-21056306</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B167">
+        <v>1488</v>
+      </c>
+      <c r="C167">
+        <v>1513.24</v>
+      </c>
+      <c r="D167">
+        <v>1471</v>
+      </c>
+      <c r="E167">
+        <v>1487.49</v>
+      </c>
+      <c r="F167">
+        <v>7621039</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="6"/>
+        <v>7621039</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="8"/>
+        <v>-4625921</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B168">
+        <v>1501</v>
+      </c>
+      <c r="C168">
+        <v>1534.81</v>
+      </c>
+      <c r="D168">
+        <v>1487</v>
+      </c>
+      <c r="E168">
+        <v>1499.11</v>
+      </c>
+      <c r="F168">
+        <v>9426893</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="6"/>
+        <v>9426893</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="8"/>
+        <v>17047932</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B169">
+        <v>1504</v>
+      </c>
+      <c r="C169">
+        <v>1564.7</v>
+      </c>
+      <c r="D169">
+        <v>1474.42</v>
+      </c>
+      <c r="E169">
+        <v>1476.49</v>
+      </c>
+      <c r="F169">
+        <v>15808700</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="6"/>
+        <v>-15808700</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="8"/>
+        <v>-6381807</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B170">
+        <v>1435</v>
+      </c>
+      <c r="C170">
+        <v>1547.94</v>
+      </c>
+      <c r="D170">
+        <v>1413.0002999999999</v>
+      </c>
+      <c r="E170">
+        <v>1539.6</v>
+      </c>
+      <c r="F170">
+        <v>16048669</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="6"/>
+        <v>16048669</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="8"/>
+        <v>239969</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B171">
+        <v>1416.01</v>
+      </c>
+      <c r="C171">
+        <v>1465</v>
+      </c>
+      <c r="D171">
+        <v>1366.5400999999999</v>
+      </c>
+      <c r="E171">
+        <v>1417</v>
+      </c>
+      <c r="F171">
+        <v>19396616</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="6"/>
+        <v>-19396616</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="8"/>
+        <v>-3347947</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B172">
+        <v>1678.95</v>
+      </c>
+      <c r="C172">
+        <v>1689</v>
+      </c>
+      <c r="D172">
+        <v>1480.77</v>
+      </c>
+      <c r="E172">
+        <v>1513.07</v>
+      </c>
+      <c r="F172">
+        <v>24328504</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="6"/>
+        <v>24328504</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="8"/>
+        <v>4931888</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B173">
+        <v>1599</v>
+      </c>
+      <c r="C173">
+        <v>1626.42</v>
+      </c>
+      <c r="D173">
+        <v>1562</v>
+      </c>
+      <c r="E173">
+        <v>1592.33</v>
+      </c>
+      <c r="F173">
+        <v>14161080</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="6"/>
+        <v>14161080</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="8"/>
+        <v>38489584</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B174">
+        <v>1639.93</v>
+      </c>
+      <c r="C174">
+        <v>1675</v>
+      </c>
+      <c r="D174">
+        <v>1558</v>
+      </c>
+      <c r="E174">
+        <v>1568.36</v>
+      </c>
+      <c r="F174">
+        <v>16157300</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="6"/>
+        <v>-16157300</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="8"/>
+        <v>-1996220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B175">
+        <v>1519.01</v>
+      </c>
+      <c r="C175">
+        <v>1650</v>
+      </c>
+      <c r="D175">
+        <v>1488</v>
+      </c>
+      <c r="E175">
+        <v>1643</v>
+      </c>
+      <c r="F175">
+        <v>17121400</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="6"/>
+        <v>17121400</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="8"/>
+        <v>964100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B176">
+        <v>1513.45</v>
+      </c>
+      <c r="C176">
+        <v>1537.51</v>
+      </c>
+      <c r="D176">
+        <v>1490</v>
+      </c>
+      <c r="E176">
+        <v>1500.84</v>
+      </c>
+      <c r="F176">
+        <v>9330000</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="6"/>
+        <v>-9330000</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="8"/>
+        <v>7791400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B177">
+        <v>1477.16</v>
+      </c>
+      <c r="C177">
+        <v>1531.71</v>
+      </c>
+      <c r="D177">
+        <v>1466</v>
+      </c>
+      <c r="E177">
+        <v>1500.64</v>
+      </c>
+      <c r="F177">
+        <v>14300800</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="6"/>
+        <v>-14300800</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="8"/>
+        <v>-23630800</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B178">
+        <v>1543</v>
+      </c>
+      <c r="C178">
+        <v>1550</v>
+      </c>
+      <c r="D178">
+        <v>1457</v>
+      </c>
+      <c r="E178">
+        <v>1546.01</v>
+      </c>
+      <c r="F178">
+        <v>16367800</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="6"/>
+        <v>16367800</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="8"/>
+        <v>2067000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B179">
+        <v>1556</v>
+      </c>
+      <c r="C179">
+        <v>1590</v>
+      </c>
+      <c r="D179">
+        <v>1431</v>
+      </c>
+      <c r="E179">
+        <v>1516.8</v>
+      </c>
+      <c r="F179">
+        <v>23418100</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="6"/>
+        <v>-23418100</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="8"/>
+        <v>-7050300</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B180">
+        <v>1659</v>
+      </c>
+      <c r="C180">
+        <v>1794.99</v>
+      </c>
+      <c r="D180">
+        <v>1471.11</v>
+      </c>
+      <c r="E180">
+        <v>1497.06</v>
+      </c>
+      <c r="F180">
+        <v>38985400</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="6"/>
+        <v>-38985400</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="8"/>
+        <v>-62403500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B181">
+        <v>1396</v>
+      </c>
+      <c r="C181">
+        <v>1548.92</v>
+      </c>
+      <c r="D181">
+        <v>1376.01</v>
+      </c>
+      <c r="E181">
+        <v>1544.65</v>
+      </c>
+      <c r="F181">
+        <v>23337600</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="6"/>
+        <v>23337600</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="8"/>
+        <v>-15647800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B182">
+        <v>1396.99</v>
+      </c>
+      <c r="C182">
+        <v>1408.56</v>
+      </c>
+      <c r="D182">
+        <v>1351.28</v>
+      </c>
+      <c r="E182">
+        <v>1394.28</v>
+      </c>
+      <c r="F182">
+        <v>11717600</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="6"/>
+        <v>-11717600</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="8"/>
+        <v>11620000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B183">
+        <v>1405</v>
+      </c>
+      <c r="C183">
+        <v>1417.26</v>
+      </c>
+      <c r="D183">
+        <v>1311.34</v>
+      </c>
+      <c r="E183">
+        <v>1365.88</v>
+      </c>
+      <c r="F183">
+        <v>16311300</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="6"/>
+        <v>-16311300</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="8"/>
+        <v>-28028900</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B184">
+        <v>1405.01</v>
+      </c>
+      <c r="C184">
+        <v>1429.5</v>
+      </c>
+      <c r="D184">
+        <v>1336.71</v>
+      </c>
+      <c r="E184">
+        <v>1389.86</v>
+      </c>
+      <c r="F184">
+        <v>21489700</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="6"/>
+        <v>21489700</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="8"/>
+        <v>5178400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B185">
+        <v>1276.69</v>
+      </c>
+      <c r="C185">
+        <v>1377.79</v>
+      </c>
+      <c r="D185">
+        <v>1266.04</v>
+      </c>
+      <c r="E185">
+        <v>1371.58</v>
+      </c>
+      <c r="F185">
+        <v>20569900</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="6"/>
+        <v>-20569900</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="8"/>
+        <v>919800</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B186">
+        <v>1221.48</v>
+      </c>
+      <c r="C186">
+        <v>1228</v>
+      </c>
+      <c r="D186">
+        <v>1185.5999999999999</v>
+      </c>
+      <c r="E186">
+        <v>1208.6600000000001</v>
+      </c>
+      <c r="F186">
+        <v>17201300</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="6"/>
+        <v>-17201300</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="8"/>
+        <v>-37771200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B187">
+        <v>1083</v>
+      </c>
+      <c r="C187">
+        <v>1135.33</v>
+      </c>
+      <c r="D187">
+        <v>1080.5</v>
+      </c>
+      <c r="E187">
+        <v>1119.6300000000001</v>
+      </c>
+      <c r="F187">
+        <v>13326900</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="6"/>
+        <v>-13326900</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="8"/>
+        <v>-30528200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B188">
+        <v>1006.5</v>
+      </c>
+      <c r="C188">
+        <v>1087.69</v>
+      </c>
+      <c r="D188">
+        <v>1003.73</v>
+      </c>
+      <c r="E188">
+        <v>1079.81</v>
+      </c>
+      <c r="F188">
+        <v>16918500</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="6"/>
+        <v>-16918500</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="8"/>
+        <v>-30245400</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B189">
+        <v>969.01</v>
+      </c>
+      <c r="C189">
+        <v>1010</v>
+      </c>
+      <c r="D189">
+        <v>948.52009999999996</v>
+      </c>
+      <c r="E189">
+        <v>1009.35</v>
+      </c>
+      <c r="F189">
+        <v>9026404</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="6"/>
+        <v>-9026404</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="8"/>
+        <v>-25944904</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B190">
+        <v>994.78</v>
+      </c>
+      <c r="C190">
+        <v>995</v>
+      </c>
+      <c r="D190">
+        <v>954.87</v>
+      </c>
+      <c r="E190">
+        <v>959.74</v>
+      </c>
+      <c r="F190">
+        <v>8854900</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="6"/>
+        <v>-8854900</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="8"/>
+        <v>-17881304</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B191">
+        <v>954.27</v>
+      </c>
+      <c r="C191">
+        <v>985.98</v>
+      </c>
+      <c r="D191">
+        <v>937.15</v>
+      </c>
+      <c r="E191">
+        <v>985.98</v>
+      </c>
+      <c r="F191">
+        <v>9254500</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="6"/>
+        <v>9254500</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="8"/>
+        <v>399600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B192">
+        <v>994.11</v>
+      </c>
+      <c r="C192">
+        <v>1000.88</v>
+      </c>
+      <c r="D192">
+        <v>953.14</v>
+      </c>
+      <c r="E192">
+        <v>960.85</v>
+      </c>
+      <c r="F192">
+        <v>10959600</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="6"/>
+        <v>-10959600</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="8"/>
+        <v>-1705100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B193">
+        <v>998.88</v>
+      </c>
+      <c r="C193">
+        <v>1012</v>
+      </c>
+      <c r="D193">
+        <v>994.01</v>
+      </c>
+      <c r="E193">
+        <v>1001.78</v>
+      </c>
+      <c r="F193">
+        <v>6365300</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="6"/>
+        <v>6365300</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="8"/>
+        <v>-4594300</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B194">
+        <v>999.95</v>
+      </c>
+      <c r="C194">
+        <v>1008.88</v>
+      </c>
+      <c r="D194">
+        <v>990.02</v>
+      </c>
+      <c r="E194">
+        <v>994.32</v>
+      </c>
+      <c r="F194">
+        <v>6362400</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="6"/>
+        <v>-6362400</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="8"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B195">
+        <v>1012.78</v>
+      </c>
+      <c r="C195">
+        <v>1015.97</v>
+      </c>
+      <c r="D195">
+        <v>991.34</v>
+      </c>
+      <c r="E195">
+        <v>1000.9</v>
+      </c>
+      <c r="F195">
+        <v>8679700</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H250" si="9">F195*G195</f>
+        <v>8679700</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="8"/>
+        <v>2317300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B196">
+        <v>1003</v>
+      </c>
+      <c r="C196">
+        <v>1019.2</v>
+      </c>
+      <c r="D196">
+        <v>994.47</v>
+      </c>
+      <c r="E196">
+        <v>1003.96</v>
+      </c>
+      <c r="F196">
+        <v>9751900</v>
+      </c>
+      <c r="G196">
+        <f t="shared" ref="G196:G250" si="10">IF(E196&gt;E195,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="9"/>
+        <v>9751900</v>
+      </c>
+      <c r="I196">
+        <f t="shared" ref="I196:I250" si="11">SUM(H195:H196)</f>
+        <v>18431600</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B197">
+        <v>987.71</v>
+      </c>
+      <c r="C197">
+        <v>1005</v>
+      </c>
+      <c r="D197">
+        <v>982.57</v>
+      </c>
+      <c r="E197">
+        <v>991.79</v>
+      </c>
+      <c r="F197">
+        <v>9869400</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="9"/>
+        <v>-9869400</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="11"/>
+        <v>-117500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B198">
+        <v>1011.85</v>
+      </c>
+      <c r="C198">
+        <v>1012.88</v>
+      </c>
+      <c r="D198">
+        <v>962.39</v>
+      </c>
+      <c r="E198">
+        <v>982.13</v>
+      </c>
+      <c r="F198">
+        <v>14051100</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="9"/>
+        <v>-14051100</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="11"/>
+        <v>-23920500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B199">
+        <v>917.79</v>
+      </c>
+      <c r="C199">
+        <v>998.84</v>
+      </c>
+      <c r="D199">
+        <v>908.5</v>
+      </c>
+      <c r="E199">
+        <v>990.9</v>
+      </c>
+      <c r="F199">
+        <v>15697200</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="9"/>
+        <v>15697200</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="11"/>
+        <v>1646100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B200">
+        <v>980</v>
+      </c>
+      <c r="C200">
+        <v>987.98</v>
+      </c>
+      <c r="D200">
+        <v>912.6</v>
+      </c>
+      <c r="E200">
+        <v>935.28</v>
+      </c>
+      <c r="F200">
+        <v>16730200</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="9"/>
+        <v>-16730200</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="11"/>
+        <v>-1033000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B201">
+        <v>990.2</v>
+      </c>
+      <c r="C201">
+        <v>1018.96</v>
+      </c>
+      <c r="D201">
+        <v>972</v>
+      </c>
+      <c r="E201">
+        <v>972.84</v>
+      </c>
+      <c r="F201">
+        <v>15916500</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="9"/>
+        <v>15916500</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="11"/>
+        <v>-813700</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B202">
+        <v>991.88</v>
+      </c>
+      <c r="C202">
+        <v>1027.48</v>
+      </c>
+      <c r="D202">
+        <v>982.5</v>
+      </c>
+      <c r="E202">
+        <v>1025.05</v>
+      </c>
+      <c r="F202">
+        <v>18563400</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="9"/>
+        <v>18563400</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="11"/>
+        <v>34479900</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B203">
+        <v>940.01</v>
+      </c>
+      <c r="C203">
+        <v>954.44</v>
+      </c>
+      <c r="D203">
+        <v>923.93</v>
+      </c>
+      <c r="E203">
+        <v>940.67</v>
+      </c>
+      <c r="F203">
+        <v>11388200</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="9"/>
+        <v>-11388200</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="11"/>
+        <v>7175200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B204">
+        <v>919</v>
+      </c>
+      <c r="C204">
+        <v>950</v>
+      </c>
+      <c r="D204">
+        <v>909.16</v>
+      </c>
+      <c r="E204">
+        <v>949.92</v>
+      </c>
+      <c r="F204">
+        <v>14174700</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="9"/>
+        <v>14174700</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="11"/>
+        <v>2786500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B205">
+        <v>877.84</v>
+      </c>
+      <c r="C205">
+        <v>886.52</v>
+      </c>
+      <c r="D205">
+        <v>866.2</v>
+      </c>
+      <c r="E205">
+        <v>885.66</v>
+      </c>
+      <c r="F205">
+        <v>7811900</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="9"/>
+        <v>-7811900</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="11"/>
+        <v>6362800</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B206">
+        <v>889.88</v>
+      </c>
+      <c r="C206">
+        <v>895.75</v>
+      </c>
+      <c r="D206">
+        <v>858.44</v>
+      </c>
+      <c r="E206">
+        <v>864.38</v>
+      </c>
+      <c r="F206">
+        <v>8887700</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="9"/>
+        <v>-8887700</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="11"/>
+        <v>-16699600</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B207">
+        <v>888.12</v>
+      </c>
+      <c r="C207">
+        <v>897.94</v>
+      </c>
+      <c r="D207">
+        <v>880.1</v>
+      </c>
+      <c r="E207">
+        <v>882.96</v>
+      </c>
+      <c r="F207">
+        <v>7949500</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="9"/>
+        <v>7949500</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="11"/>
+        <v>-938200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B208">
+        <v>894.7</v>
+      </c>
+      <c r="C208">
+        <v>908.66</v>
+      </c>
+      <c r="D208">
+        <v>871</v>
+      </c>
+      <c r="E208">
+        <v>881.56</v>
+      </c>
+      <c r="F208">
+        <v>13565600</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="9"/>
+        <v>-13565600</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="11"/>
+        <v>-5616100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B209">
+        <v>858</v>
+      </c>
+      <c r="C209">
+        <v>899</v>
+      </c>
+      <c r="D209">
+        <v>854.1</v>
+      </c>
+      <c r="E209">
+        <v>898.1</v>
+      </c>
+      <c r="F209">
+        <v>14939500</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="9"/>
+        <v>14939500</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="11"/>
+        <v>1373900</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B210">
+        <v>808.75</v>
+      </c>
+      <c r="C210">
+        <v>835</v>
+      </c>
+      <c r="D210">
+        <v>804.21</v>
+      </c>
+      <c r="E210">
+        <v>835</v>
+      </c>
+      <c r="F210">
+        <v>11812500</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="9"/>
+        <v>-11812500</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="11"/>
+        <v>3127000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B211">
+        <v>813.51</v>
+      </c>
+      <c r="C211">
+        <v>824.75</v>
+      </c>
+      <c r="D211">
+        <v>801.69</v>
+      </c>
+      <c r="E211">
+        <v>805.81</v>
+      </c>
+      <c r="F211">
+        <v>7255600</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="9"/>
+        <v>-7255600</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="11"/>
+        <v>-19068100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B212">
+        <v>820.86</v>
+      </c>
+      <c r="C212">
+        <v>827.71</v>
+      </c>
+      <c r="D212">
+        <v>785</v>
+      </c>
+      <c r="E212">
+        <v>820.23</v>
+      </c>
+      <c r="F212">
+        <v>11549500</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="9"/>
+        <v>11549500</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="11"/>
+        <v>4293900</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B213">
+        <v>834.5</v>
+      </c>
+      <c r="C213">
+        <v>834.6</v>
+      </c>
+      <c r="D213">
+        <v>815.71</v>
+      </c>
+      <c r="E213">
+        <v>818.87</v>
+      </c>
+      <c r="F213">
+        <v>8089700</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="9"/>
+        <v>-8089700</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="11"/>
+        <v>3459800</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B214">
+        <v>822.17</v>
+      </c>
+      <c r="C214">
+        <v>831.78</v>
+      </c>
+      <c r="D214">
+        <v>812</v>
+      </c>
+      <c r="E214">
+        <v>816.88</v>
+      </c>
+      <c r="F214">
+        <v>9987500</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="9"/>
+        <v>-9987500</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="11"/>
+        <v>-18077200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B215">
+        <v>816</v>
+      </c>
+      <c r="C215">
+        <v>832.5</v>
+      </c>
+      <c r="D215">
+        <v>796</v>
+      </c>
+      <c r="E215">
+        <v>827.6</v>
+      </c>
+      <c r="F215">
+        <v>12254600</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="9"/>
+        <v>12254600</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="11"/>
+        <v>2267100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B216">
+        <v>820.5</v>
+      </c>
+      <c r="C216">
+        <v>826</v>
+      </c>
+      <c r="D216">
+        <v>811.8</v>
+      </c>
+      <c r="E216">
+        <v>815.56</v>
+      </c>
+      <c r="F216">
+        <v>7309300</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="9"/>
+        <v>-7309300</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="11"/>
+        <v>4945300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B217">
+        <v>815.17</v>
+      </c>
+      <c r="C217">
+        <v>822.07</v>
+      </c>
+      <c r="D217">
+        <v>806.08</v>
+      </c>
+      <c r="E217">
+        <v>808.01</v>
+      </c>
+      <c r="F217">
+        <v>9636500</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="9"/>
+        <v>-9636500</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="11"/>
+        <v>-16945800</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B218">
+        <v>827.78</v>
+      </c>
+      <c r="C218">
+        <v>834.72</v>
+      </c>
+      <c r="D218">
+        <v>803.88</v>
+      </c>
+      <c r="E218">
+        <v>813.63</v>
+      </c>
+      <c r="F218">
+        <v>11698100</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="9"/>
+        <v>11698100</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="11"/>
+        <v>2061600</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B219">
+        <v>790.35</v>
+      </c>
+      <c r="C219">
+        <v>805.05</v>
+      </c>
+      <c r="D219">
+        <v>786.55</v>
+      </c>
+      <c r="E219">
+        <v>799.17</v>
+      </c>
+      <c r="F219">
+        <v>10518400</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="9"/>
+        <v>-10518400</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="11"/>
+        <v>1179700</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B220">
+        <v>780</v>
+      </c>
+      <c r="C220">
+        <v>803.36</v>
+      </c>
+      <c r="D220">
+        <v>764</v>
+      </c>
+      <c r="E220">
+        <v>803.33</v>
+      </c>
+      <c r="F220">
+        <v>13682200</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="9"/>
+        <v>13682200</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="11"/>
+        <v>3163800</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B221">
+        <v>820.83</v>
+      </c>
+      <c r="C221">
+        <v>826</v>
+      </c>
+      <c r="D221">
+        <v>763.3</v>
+      </c>
+      <c r="E221">
+        <v>790.96</v>
+      </c>
+      <c r="F221">
+        <v>19065500</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="9"/>
+        <v>-19065500</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="11"/>
+        <v>-5383300</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B222">
+        <v>827</v>
+      </c>
+      <c r="C222">
+        <v>843.29</v>
+      </c>
+      <c r="D222">
+        <v>808</v>
+      </c>
+      <c r="E222">
+        <v>809.41</v>
+      </c>
+      <c r="F222">
+        <v>15906900</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="9"/>
+        <v>15906900</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="11"/>
+        <v>-3158600</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B223">
+        <v>790.51</v>
+      </c>
+      <c r="C223">
+        <v>824</v>
+      </c>
+      <c r="D223">
+        <v>785</v>
+      </c>
+      <c r="E223">
+        <v>811.29</v>
+      </c>
+      <c r="F223">
+        <v>16519600</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="9"/>
+        <v>16519600</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="11"/>
+        <v>32426500</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B224">
+        <v>793.77</v>
+      </c>
+      <c r="C224">
+        <v>824</v>
+      </c>
+      <c r="D224">
+        <v>787.01</v>
+      </c>
+      <c r="E224">
+        <v>819.42</v>
+      </c>
+      <c r="F224">
+        <v>16130100</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="9"/>
+        <v>16130100</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="11"/>
+        <v>32649700</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B225">
+        <v>777.21</v>
+      </c>
+      <c r="C225">
+        <v>796.4</v>
+      </c>
+      <c r="D225">
+        <v>772.35</v>
+      </c>
+      <c r="E225">
+        <v>780.04</v>
+      </c>
+      <c r="F225">
+        <v>11527700</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="9"/>
+        <v>-11527700</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="11"/>
+        <v>4602400</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B226">
+        <v>776.5</v>
+      </c>
+      <c r="C226">
+        <v>789.8</v>
+      </c>
+      <c r="D226">
+        <v>761.11</v>
+      </c>
+      <c r="E226">
+        <v>782.58</v>
+      </c>
+      <c r="F226">
+        <v>11123200</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="9"/>
+        <v>11123200</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="11"/>
+        <v>-404500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B227">
+        <v>789.79</v>
+      </c>
+      <c r="C227">
+        <v>798.92</v>
+      </c>
+      <c r="D227">
+        <v>762.18</v>
+      </c>
+      <c r="E227">
+        <v>768.21</v>
+      </c>
+      <c r="F227">
+        <v>16991700</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="9"/>
+        <v>-16991700</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="11"/>
+        <v>-5868500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B228">
+        <v>701</v>
+      </c>
+      <c r="C228">
+        <v>762</v>
+      </c>
+      <c r="D228">
+        <v>698</v>
+      </c>
+      <c r="E228">
+        <v>761.19</v>
+      </c>
+      <c r="F228">
+        <v>19237100</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="9"/>
+        <v>-19237100</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="11"/>
+        <v>-36228800</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B229">
+        <v>755</v>
+      </c>
+      <c r="C229">
+        <v>772.77</v>
+      </c>
+      <c r="D229">
+        <v>683.04</v>
+      </c>
+      <c r="E229">
+        <v>701.32</v>
+      </c>
+      <c r="F229">
+        <v>32531800</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="9"/>
+        <v>-32531800</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="11"/>
+        <v>-51768900</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B230">
+        <v>855.19</v>
+      </c>
+      <c r="C230">
+        <v>869.82</v>
+      </c>
+      <c r="D230">
+        <v>763.5</v>
+      </c>
+      <c r="E230">
+        <v>781.88</v>
+      </c>
+      <c r="F230">
+        <v>28471900</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="9"/>
+        <v>28471900</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="11"/>
+        <v>-4059900</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B231">
+        <v>790.17</v>
+      </c>
+      <c r="C231">
+        <v>803.2</v>
+      </c>
+      <c r="D231">
+        <v>783.16</v>
+      </c>
+      <c r="E231">
+        <v>800.51</v>
+      </c>
+      <c r="F231">
+        <v>16216000</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="9"/>
+        <v>16216000</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="11"/>
+        <v>44687900</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B232">
+        <v>795.64</v>
+      </c>
+      <c r="C232">
+        <v>805</v>
+      </c>
+      <c r="D232">
+        <v>756.69</v>
+      </c>
+      <c r="E232">
+        <v>769.12</v>
+      </c>
+      <c r="F232">
+        <v>15222000</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="9"/>
+        <v>-15222000</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="11"/>
+        <v>994000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B233">
+        <v>737.61</v>
+      </c>
+      <c r="C233">
+        <v>799.49</v>
+      </c>
+      <c r="D233">
+        <v>735</v>
+      </c>
+      <c r="E233">
+        <v>798.75</v>
+      </c>
+      <c r="F233">
+        <v>20681400</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="9"/>
+        <v>20681400</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="11"/>
+        <v>5459400</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B234">
+        <v>710.81</v>
+      </c>
+      <c r="C234">
+        <v>730.73</v>
+      </c>
+      <c r="D234">
+        <v>698.18</v>
+      </c>
+      <c r="E234">
+        <v>725.15</v>
+      </c>
+      <c r="F234">
+        <v>13237600</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="9"/>
+        <v>-13237600</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="11"/>
+        <v>7443800</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B235">
+        <v>727.6</v>
+      </c>
+      <c r="C235">
+        <v>734</v>
+      </c>
+      <c r="D235">
+        <v>703.13</v>
+      </c>
+      <c r="E235">
+        <v>705.63</v>
+      </c>
+      <c r="F235">
+        <v>13236700</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="9"/>
+        <v>-13236700</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="11"/>
+        <v>-26474300</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B236">
+        <v>703.98</v>
+      </c>
+      <c r="C236">
+        <v>734</v>
+      </c>
+      <c r="D236">
+        <v>688.71</v>
+      </c>
+      <c r="E236">
+        <v>732.11</v>
+      </c>
+      <c r="F236">
+        <v>14224800</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="9"/>
+        <v>14224800</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="11"/>
+        <v>988100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B237">
+        <v>730.12</v>
+      </c>
+      <c r="C237">
+        <v>753.33</v>
+      </c>
+      <c r="D237">
+        <v>673.79</v>
+      </c>
+      <c r="E237">
+        <v>686.72</v>
+      </c>
+      <c r="F237">
+        <v>20209100</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="9"/>
+        <v>-20209100</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="11"/>
+        <v>-5984300</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B238">
+        <v>732.7</v>
+      </c>
+      <c r="C238">
+        <v>765.57</v>
+      </c>
+      <c r="D238">
+        <v>712.21</v>
+      </c>
+      <c r="E238">
+        <v>746.36</v>
+      </c>
+      <c r="F238">
+        <v>14746600</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="9"/>
+        <v>14746600</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="11"/>
+        <v>-5462500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B239">
+        <v>772.28</v>
+      </c>
+      <c r="C239">
+        <v>774.95</v>
+      </c>
+      <c r="D239">
+        <v>747.66</v>
+      </c>
+      <c r="E239">
+        <v>753.89</v>
+      </c>
+      <c r="F239">
+        <v>13128200</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="9"/>
+        <v>13128200</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="11"/>
+        <v>27874800</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B240">
+        <v>716.94</v>
+      </c>
+      <c r="C240">
+        <v>759.45</v>
+      </c>
+      <c r="D240">
+        <v>706.72</v>
+      </c>
+      <c r="E240">
+        <v>745.21</v>
+      </c>
+      <c r="F240">
+        <v>20657900</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="9"/>
+        <v>-20657900</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="11"/>
+        <v>-7529700</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B241">
+        <v>742</v>
+      </c>
+      <c r="C241">
+        <v>753.13</v>
+      </c>
+      <c r="D241">
+        <v>710</v>
+      </c>
+      <c r="E241">
+        <v>729.83</v>
+      </c>
+      <c r="F241">
+        <v>23577000</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="9"/>
+        <v>-23577000</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="11"/>
+        <v>-44234900</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B242">
+        <v>698.97</v>
+      </c>
+      <c r="C242">
+        <v>741.88</v>
+      </c>
+      <c r="D242">
+        <v>692.43</v>
+      </c>
+      <c r="E242">
+        <v>709.89</v>
+      </c>
+      <c r="F242">
+        <v>30576500</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="9"/>
+        <v>-30576500</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="11"/>
+        <v>-54153500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B243">
+        <v>590.16</v>
+      </c>
+      <c r="C243">
+        <v>652</v>
+      </c>
+      <c r="D243">
+        <v>580.53</v>
+      </c>
+      <c r="E243">
+        <v>650.95000000000005</v>
+      </c>
+      <c r="F243">
+        <v>22475400</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="9"/>
+        <v>-22475400</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="11"/>
+        <v>-53051900</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B244">
+        <v>562.09</v>
+      </c>
+      <c r="C244">
+        <v>575.17999999999995</v>
+      </c>
+      <c r="D244">
+        <v>557.11</v>
+      </c>
+      <c r="E244">
+        <v>573</v>
+      </c>
+      <c r="F244">
+        <v>13650000</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="9"/>
+        <v>-13650000</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="11"/>
+        <v>-36125400</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B245">
+        <v>554.20000000000005</v>
+      </c>
+      <c r="C245">
+        <v>557.21</v>
+      </c>
+      <c r="D245">
+        <v>533.33000000000004</v>
+      </c>
+      <c r="E245">
+        <v>548.84</v>
+      </c>
+      <c r="F245">
+        <v>12656000</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="9"/>
+        <v>-12656000</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="11"/>
+        <v>-26306000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B246">
+        <v>545</v>
+      </c>
+      <c r="C246">
+        <v>565</v>
+      </c>
+      <c r="D246">
+        <v>532.34</v>
+      </c>
+      <c r="E246">
+        <v>545.45000000000005</v>
+      </c>
+      <c r="F246">
+        <v>17919800</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="9"/>
+        <v>-17919800</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="11"/>
+        <v>-30575800</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B247">
+        <v>511.2</v>
+      </c>
+      <c r="C247">
+        <v>521</v>
+      </c>
+      <c r="D247">
+        <v>497.96</v>
+      </c>
+      <c r="E247">
+        <v>516.24</v>
+      </c>
+      <c r="F247">
+        <v>14901800</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="9"/>
+        <v>-14901800</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="11"/>
+        <v>-32821600</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B248">
+        <v>509.5</v>
+      </c>
+      <c r="C248">
+        <v>515.49</v>
+      </c>
+      <c r="D248">
+        <v>468.39</v>
+      </c>
+      <c r="E248">
+        <v>480.01</v>
+      </c>
+      <c r="F248">
+        <v>22562100</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="9"/>
+        <v>-22562100</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="11"/>
+        <v>-37463900</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B249">
+        <v>481.03</v>
+      </c>
+      <c r="C249">
+        <v>494.26</v>
+      </c>
+      <c r="D249">
+        <v>446.4</v>
+      </c>
+      <c r="E249">
+        <v>454.47</v>
+      </c>
+      <c r="F249">
+        <v>19858400</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="9"/>
+        <v>-19858400</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="11"/>
+        <v>-42420500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B250">
+        <v>504</v>
+      </c>
+      <c r="C250">
+        <v>513.95000000000005</v>
+      </c>
+      <c r="D250">
+        <v>475.1</v>
+      </c>
+      <c r="E250">
+        <v>481.56</v>
+      </c>
+      <c r="F250">
+        <v>13353200</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="9"/>
+        <v>13353200</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="11"/>
+        <v>-6505200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>